--- a/src/assets/form/Nhân viên.xlsx
+++ b/src/assets/form/Nhân viên.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANA\Desktop\QCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Set up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA4B82D-A51F-4EAD-AE52-65191E398139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B059F0-0154-4C84-9D33-23E92A4D9D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14B5FB53-ADE8-45D5-B27D-09017F30C9D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14B5FB53-ADE8-45D5-B27D-09017F30C9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -80,12 +69,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F958DE3E-E7C2-402E-B092-7D32B25C6488}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Khu vực lay theo tên cac khu vực đã thêm vào : như tổ tiện Tổ phay</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>STT</t>
   </si>
@@ -94,6 +96,9 @@
   </si>
   <si>
     <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Khu vực</t>
   </si>
 </sst>
 </file>
@@ -657,14 +662,13 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="36.140625" customWidth="1"/>
   </cols>
@@ -679,102 +683,124 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
